--- a/doc/form1.xlsx
+++ b/doc/form1.xlsx
@@ -1219,9 +1219,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z101"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1239,14 +1239,14 @@
     <col min="17" max="17" width="5.75" style="1" customWidth="1"/>
     <col min="18" max="19" width="4.625"/>
     <col min="20" max="20" width="5.75" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.75" style="17" customWidth="1"/>
+    <col min="21" max="21" width="11.125" style="17" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="5.75" style="17" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>21</v>
       </c>
@@ -1272,7 +1272,7 @@
       <c r="T2" s="38"/>
       <c r="U2" s="18"/>
     </row>
-    <row r="3" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -1294,10 +1294,10 @@
       <c r="T3" s="38"/>
       <c r="U3" s="18"/>
     </row>
-    <row r="4" spans="1:26" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1320,10 +1320,10 @@
       <c r="T5" s="5"/>
       <c r="U5" s="19"/>
     </row>
-    <row r="6" spans="1:26" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
@@ -1358,8 +1358,14 @@
       </c>
       <c r="S7" s="40"/>
       <c r="T7" s="41"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U7" s="17">
+        <v>2023</v>
+      </c>
+      <c r="V7" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
@@ -1418,11 +1424,9 @@
       <c r="T8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="22">
-        <v>45200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U8" s="22"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>1</v>
       </c>
@@ -1450,12 +1454,8 @@
       <c r="U9" s="20">
         <v>1</v>
       </c>
-      <c r="V9" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U9))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="9" t="s">
         <v>15</v>
@@ -1479,9 +1479,9 @@
       <c r="S10" s="14"/>
       <c r="T10" s="24"/>
       <c r="U10" s="20"/>
-      <c r="Z10" s="21"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y10" s="21"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -1506,7 +1506,7 @@
       <c r="T11" s="25"/>
       <c r="U11" s="20"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
         <v>2</v>
       </c>
@@ -1534,12 +1534,8 @@
       <c r="U12" s="20">
         <v>2</v>
       </c>
-      <c r="V12" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U12))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
       <c r="B13" s="9" t="s">
         <v>19</v>
@@ -1564,7 +1560,7 @@
       <c r="T13" s="24"/>
       <c r="U13" s="20"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="10" t="s">
         <v>16</v>
@@ -1589,7 +1585,7 @@
       <c r="T14" s="25"/>
       <c r="U14" s="20"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>3</v>
       </c>
@@ -1617,12 +1613,8 @@
       <c r="U15" s="20">
         <v>3</v>
       </c>
-      <c r="V15" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U15))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
       <c r="B16" s="9" t="s">
         <v>19</v>
@@ -1647,7 +1639,7 @@
       <c r="T16" s="24"/>
       <c r="U16" s="20"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -1672,7 +1664,7 @@
       <c r="T17" s="25"/>
       <c r="U17" s="20"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>4</v>
       </c>
@@ -1700,12 +1692,8 @@
       <c r="U18" s="20">
         <v>4</v>
       </c>
-      <c r="V18" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U18))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="9" t="s">
         <v>17</v>
@@ -1730,7 +1718,7 @@
       <c r="T19" s="24"/>
       <c r="U19" s="20"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
       <c r="B20" s="10" t="s">
         <v>18</v>
@@ -1755,7 +1743,7 @@
       <c r="T20" s="25"/>
       <c r="U20" s="20"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>5</v>
       </c>
@@ -1783,12 +1771,8 @@
       <c r="U21" s="20">
         <v>5</v>
       </c>
-      <c r="V21" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U21))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="9" t="s">
         <v>17</v>
@@ -1813,7 +1797,7 @@
       <c r="T22" s="24"/>
       <c r="U22" s="20"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
       <c r="B23" s="10" t="s">
         <v>18</v>
@@ -1838,7 +1822,7 @@
       <c r="T23" s="25"/>
       <c r="U23" s="20"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>6</v>
       </c>
@@ -1866,12 +1850,8 @@
       <c r="U24" s="20">
         <v>6</v>
       </c>
-      <c r="V24" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U24))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="9" t="s">
         <v>17</v>
@@ -1896,7 +1876,7 @@
       <c r="T25" s="24"/>
       <c r="U25" s="20"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="10" t="s">
         <v>18</v>
@@ -1921,7 +1901,7 @@
       <c r="T26" s="25"/>
       <c r="U26" s="20"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>7</v>
       </c>
@@ -1949,12 +1929,8 @@
       <c r="U27" s="20">
         <v>7</v>
       </c>
-      <c r="V27" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U27))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="27"/>
       <c r="B28" s="9" t="s">
         <v>17</v>
@@ -1979,7 +1955,7 @@
       <c r="T28" s="24"/>
       <c r="U28" s="20"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="10" t="s">
         <v>18</v>
@@ -2004,7 +1980,7 @@
       <c r="T29" s="25"/>
       <c r="U29" s="20"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="26">
         <v>8</v>
       </c>
@@ -2032,12 +2008,8 @@
       <c r="U30" s="20">
         <v>8</v>
       </c>
-      <c r="V30" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U30))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="27"/>
       <c r="B31" s="9" t="s">
         <v>17</v>
@@ -2062,7 +2034,7 @@
       <c r="T31" s="24"/>
       <c r="U31" s="20"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" s="10" t="s">
         <v>18</v>
@@ -2087,7 +2059,7 @@
       <c r="T32" s="25"/>
       <c r="U32" s="20"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="26">
         <v>9</v>
       </c>
@@ -2115,12 +2087,8 @@
       <c r="U33" s="20">
         <v>9</v>
       </c>
-      <c r="V33" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U33))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="27"/>
       <c r="B34" s="9" t="s">
         <v>17</v>
@@ -2145,7 +2113,7 @@
       <c r="T34" s="24"/>
       <c r="U34" s="20"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="10" t="s">
         <v>18</v>
@@ -2170,7 +2138,7 @@
       <c r="T35" s="25"/>
       <c r="U35" s="20"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="26">
         <v>10</v>
       </c>
@@ -2198,12 +2166,8 @@
       <c r="U36" s="20">
         <v>10</v>
       </c>
-      <c r="V36" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U36))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="27"/>
       <c r="B37" s="9" t="s">
         <v>17</v>
@@ -2228,7 +2192,7 @@
       <c r="T37" s="24"/>
       <c r="U37" s="20"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="10" t="s">
         <v>18</v>
@@ -2253,7 +2217,7 @@
       <c r="T38" s="25"/>
       <c r="U38" s="20"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="26">
         <v>11</v>
       </c>
@@ -2281,12 +2245,8 @@
       <c r="U39" s="20">
         <v>11</v>
       </c>
-      <c r="V39" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U39))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="27"/>
       <c r="B40" s="9" t="s">
         <v>17</v>
@@ -2311,7 +2271,7 @@
       <c r="T40" s="24"/>
       <c r="U40" s="20"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="10" t="s">
         <v>18</v>
@@ -2336,7 +2296,7 @@
       <c r="T41" s="25"/>
       <c r="U41" s="20"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="26">
         <v>12</v>
       </c>
@@ -2364,12 +2324,8 @@
       <c r="U42" s="20">
         <v>12</v>
       </c>
-      <c r="V42" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U42))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="27"/>
       <c r="B43" s="9" t="s">
         <v>17</v>
@@ -2394,7 +2350,7 @@
       <c r="T43" s="24"/>
       <c r="U43" s="20"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="10" t="s">
         <v>18</v>
@@ -2419,7 +2375,7 @@
       <c r="T44" s="25"/>
       <c r="U44" s="20"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="26">
         <v>13</v>
       </c>
@@ -2447,12 +2403,8 @@
       <c r="U45" s="20">
         <v>13</v>
       </c>
-      <c r="V45" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U45))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="27"/>
       <c r="B46" s="9" t="s">
         <v>17</v>
@@ -2477,7 +2429,7 @@
       <c r="T46" s="24"/>
       <c r="U46" s="20"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
       <c r="B47" s="10" t="s">
         <v>18</v>
@@ -2502,7 +2454,7 @@
       <c r="T47" s="25"/>
       <c r="U47" s="20"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="26">
         <v>14</v>
       </c>
@@ -2530,12 +2482,8 @@
       <c r="U48" s="20">
         <v>14</v>
       </c>
-      <c r="V48" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U48))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="27"/>
       <c r="B49" s="9" t="s">
         <v>17</v>
@@ -2560,7 +2508,7 @@
       <c r="T49" s="24"/>
       <c r="U49" s="20"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
       <c r="B50" s="10" t="s">
         <v>18</v>
@@ -2585,7 +2533,7 @@
       <c r="T50" s="25"/>
       <c r="U50" s="20"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
         <v>15</v>
       </c>
@@ -2613,12 +2561,8 @@
       <c r="U51" s="20">
         <v>15</v>
       </c>
-      <c r="V51" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U51))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="27"/>
       <c r="B52" s="9" t="s">
         <v>17</v>
@@ -2643,7 +2587,7 @@
       <c r="T52" s="24"/>
       <c r="U52" s="20"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="28"/>
       <c r="B53" s="10" t="s">
         <v>18</v>
@@ -2668,7 +2612,7 @@
       <c r="T53" s="25"/>
       <c r="U53" s="20"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="26">
         <v>16</v>
       </c>
@@ -2696,12 +2640,8 @@
       <c r="U54" s="20">
         <v>16</v>
       </c>
-      <c r="V54" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U54))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="9" t="s">
         <v>17</v>
@@ -2726,7 +2666,7 @@
       <c r="T55" s="24"/>
       <c r="U55" s="20"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="28"/>
       <c r="B56" s="10" t="s">
         <v>18</v>
@@ -2751,7 +2691,7 @@
       <c r="T56" s="25"/>
       <c r="U56" s="20"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
         <v>17</v>
       </c>
@@ -2779,12 +2719,8 @@
       <c r="U57" s="20">
         <v>17</v>
       </c>
-      <c r="V57" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U57))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="27"/>
       <c r="B58" s="9" t="s">
         <v>17</v>
@@ -2809,7 +2745,7 @@
       <c r="T58" s="24"/>
       <c r="U58" s="20"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="28"/>
       <c r="B59" s="10" t="s">
         <v>18</v>
@@ -2834,7 +2770,7 @@
       <c r="T59" s="25"/>
       <c r="U59" s="20"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="26">
         <v>18</v>
       </c>
@@ -2862,12 +2798,8 @@
       <c r="U60" s="20">
         <v>18</v>
       </c>
-      <c r="V60" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U60))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="27"/>
       <c r="B61" s="9" t="s">
         <v>17</v>
@@ -2892,7 +2824,7 @@
       <c r="T61" s="24"/>
       <c r="U61" s="20"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="28"/>
       <c r="B62" s="10" t="s">
         <v>18</v>
@@ -2917,7 +2849,7 @@
       <c r="T62" s="25"/>
       <c r="U62" s="20"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="26">
         <v>19</v>
       </c>
@@ -2945,12 +2877,8 @@
       <c r="U63" s="20">
         <v>19</v>
       </c>
-      <c r="V63" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U63))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="27"/>
       <c r="B64" s="9" t="s">
         <v>17</v>
@@ -2975,7 +2903,7 @@
       <c r="T64" s="24"/>
       <c r="U64" s="20"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="28"/>
       <c r="B65" s="10" t="s">
         <v>18</v>
@@ -3000,7 +2928,7 @@
       <c r="T65" s="25"/>
       <c r="U65" s="20"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="26">
         <v>20</v>
       </c>
@@ -3028,12 +2956,8 @@
       <c r="U66" s="20">
         <v>20</v>
       </c>
-      <c r="V66" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U66))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="27"/>
       <c r="B67" s="9" t="s">
         <v>17</v>
@@ -3058,7 +2982,7 @@
       <c r="T67" s="24"/>
       <c r="U67" s="20"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="28"/>
       <c r="B68" s="10" t="s">
         <v>18</v>
@@ -3083,7 +3007,7 @@
       <c r="T68" s="25"/>
       <c r="U68" s="20"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="26">
         <v>21</v>
       </c>
@@ -3111,12 +3035,8 @@
       <c r="U69" s="20">
         <v>21</v>
       </c>
-      <c r="V69" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U69))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="27"/>
       <c r="B70" s="9" t="s">
         <v>17</v>
@@ -3141,7 +3061,7 @@
       <c r="T70" s="24"/>
       <c r="U70" s="20"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
       <c r="B71" s="10" t="s">
         <v>18</v>
@@ -3166,7 +3086,7 @@
       <c r="T71" s="25"/>
       <c r="U71" s="20"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="26">
         <v>22</v>
       </c>
@@ -3194,12 +3114,8 @@
       <c r="U72" s="20">
         <v>22</v>
       </c>
-      <c r="V72" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U72))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="27"/>
       <c r="B73" s="9" t="s">
         <v>17</v>
@@ -3224,7 +3140,7 @@
       <c r="T73" s="24"/>
       <c r="U73" s="20"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="28"/>
       <c r="B74" s="10" t="s">
         <v>18</v>
@@ -3249,7 +3165,7 @@
       <c r="T74" s="25"/>
       <c r="U74" s="20"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="26">
         <v>23</v>
       </c>
@@ -3277,12 +3193,8 @@
       <c r="U75" s="20">
         <v>23</v>
       </c>
-      <c r="V75" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U75))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="27"/>
       <c r="B76" s="9" t="s">
         <v>17</v>
@@ -3307,7 +3219,7 @@
       <c r="T76" s="24"/>
       <c r="U76" s="20"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="28"/>
       <c r="B77" s="10" t="s">
         <v>18</v>
@@ -3332,7 +3244,7 @@
       <c r="T77" s="25"/>
       <c r="U77" s="20"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="26">
         <v>24</v>
       </c>
@@ -3360,12 +3272,8 @@
       <c r="U78" s="20">
         <v>24</v>
       </c>
-      <c r="V78" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U78))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="27"/>
       <c r="B79" s="9" t="s">
         <v>17</v>
@@ -3390,7 +3298,7 @@
       <c r="T79" s="24"/>
       <c r="U79" s="20"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="28"/>
       <c r="B80" s="10" t="s">
         <v>18</v>
@@ -3415,7 +3323,7 @@
       <c r="T80" s="25"/>
       <c r="U80" s="20"/>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="26">
         <v>25</v>
       </c>
@@ -3443,12 +3351,8 @@
       <c r="U81" s="20">
         <v>25</v>
       </c>
-      <c r="V81" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U81))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="27"/>
       <c r="B82" s="9" t="s">
         <v>17</v>
@@ -3473,7 +3377,7 @@
       <c r="T82" s="24"/>
       <c r="U82" s="20"/>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="28"/>
       <c r="B83" s="10" t="s">
         <v>18</v>
@@ -3498,7 +3402,7 @@
       <c r="T83" s="25"/>
       <c r="U83" s="20"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="26">
         <v>26</v>
       </c>
@@ -3526,12 +3430,8 @@
       <c r="U84" s="20">
         <v>26</v>
       </c>
-      <c r="V84" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U84))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="27"/>
       <c r="B85" s="9" t="s">
         <v>17</v>
@@ -3556,7 +3456,7 @@
       <c r="T85" s="24"/>
       <c r="U85" s="20"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="28"/>
       <c r="B86" s="10" t="s">
         <v>18</v>
@@ -3581,7 +3481,7 @@
       <c r="T86" s="25"/>
       <c r="U86" s="20"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="26">
         <v>27</v>
       </c>
@@ -3609,12 +3509,8 @@
       <c r="U87" s="20">
         <v>27</v>
       </c>
-      <c r="V87" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U87))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="27"/>
       <c r="B88" s="9" t="s">
         <v>17</v>
@@ -3639,7 +3535,7 @@
       <c r="T88" s="24"/>
       <c r="U88" s="20"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="28"/>
       <c r="B89" s="10" t="s">
         <v>18</v>
@@ -3664,7 +3560,7 @@
       <c r="T89" s="25"/>
       <c r="U89" s="20"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="26">
         <v>28</v>
       </c>
@@ -3692,12 +3588,8 @@
       <c r="U90" s="20">
         <v>28</v>
       </c>
-      <c r="V90" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U90))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="27"/>
       <c r="B91" s="9" t="s">
         <v>17</v>
@@ -3722,7 +3614,7 @@
       <c r="T91" s="24"/>
       <c r="U91" s="20"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="28"/>
       <c r="B92" s="10" t="s">
         <v>18</v>
@@ -3747,7 +3639,7 @@
       <c r="T92" s="25"/>
       <c r="U92" s="20"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="26">
         <v>29</v>
       </c>
@@ -3775,12 +3667,8 @@
       <c r="U93" s="20">
         <v>29</v>
       </c>
-      <c r="V93" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U93))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="27"/>
       <c r="B94" s="9" t="s">
         <v>17</v>
@@ -3805,7 +3693,7 @@
       <c r="T94" s="24"/>
       <c r="U94" s="20"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="28"/>
       <c r="B95" s="10" t="s">
         <v>18</v>
@@ -3830,7 +3718,7 @@
       <c r="T95" s="25"/>
       <c r="U95" s="20"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="26">
         <v>30</v>
       </c>
@@ -3858,12 +3746,8 @@
       <c r="U96" s="20">
         <v>30</v>
       </c>
-      <c r="V96" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U96))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="27"/>
       <c r="B97" s="9" t="s">
         <v>17</v>
@@ -3888,7 +3772,7 @@
       <c r="T97" s="24"/>
       <c r="U97" s="20"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="28"/>
       <c r="B98" s="10" t="s">
         <v>18</v>
@@ -3913,7 +3797,7 @@
       <c r="T98" s="25"/>
       <c r="U98" s="20"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="26">
         <v>31</v>
       </c>
@@ -3941,12 +3825,8 @@
       <c r="U99" s="20">
         <v>31</v>
       </c>
-      <c r="V99" s="17">
-        <f>WEEKDAY(DATE(YEAR(U8),MONTH(U8),U99))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="27"/>
       <c r="B100" s="9" t="s">
         <v>17</v>
@@ -3971,7 +3851,7 @@
       <c r="T100" s="24"/>
       <c r="U100" s="20"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="28"/>
       <c r="B101" s="10" t="s">
         <v>18</v>
@@ -4232,157 +4112,157 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B9:T11">
     <cfRule type="expression" dxfId="30" priority="33">
-      <formula>IF(OR($V$9=1,$V$9=7),TRUE,FALSE)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$9))=1,WEEKDAY(DATE($U$7,$V$7,$U$9))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:T14">
     <cfRule type="expression" dxfId="29" priority="31">
-      <formula>OR($V$12=1,$V$12=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$12))=1,WEEKDAY(DATE($U$7,$V$7,$U$12))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:T17">
     <cfRule type="expression" dxfId="28" priority="29">
-      <formula>OR($V$15=1,$V$15=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$15))=1,WEEKDAY(DATE($U$7,$V$7,$U$15))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:T20">
     <cfRule type="expression" dxfId="27" priority="28">
-      <formula>OR($V$18=1,$V$18=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$18))=1,WEEKDAY(DATE($U$7,$V$7,$U$18))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:T23">
     <cfRule type="expression" dxfId="26" priority="27">
-      <formula>OR($V$21=1,$V$21=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$21))=1,WEEKDAY(DATE($U$7,$V$7,$U$21))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:T26">
     <cfRule type="expression" dxfId="25" priority="26">
-      <formula>OR($V$24=1,$V$24=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$24))=1,WEEKDAY(DATE($U$7,$V$7,$U$24))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:T29">
     <cfRule type="expression" dxfId="24" priority="25">
-      <formula>OR($V$27=1,$V$27=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$27))=1,WEEKDAY(DATE($U$7,$V$7,$U$27))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:T32">
     <cfRule type="expression" dxfId="23" priority="24">
-      <formula>OR($V$30=1,$V$30=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$30))=1,WEEKDAY(DATE($U$7,$V$7,$U$30))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:T35">
     <cfRule type="expression" dxfId="22" priority="23">
-      <formula>OR($V$33=1,$V$33=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$33))=1,WEEKDAY(DATE($U$7,$V$7,$U$33))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:T38">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>OR($V$36=1,$V$36=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$36))=1,WEEKDAY(DATE($U$7,$V$7,$U$36))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:T41">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>OR($V$39=1,$V$39=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$39))=1,WEEKDAY(DATE($U$7,$V$7,$U$39))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:T44">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>OR($V$42=1,$V$42=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$42))=1,WEEKDAY(DATE($U$7,$V$7,$U$42))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:T47">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>OR($V$45=1,$V$45=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$45))=1,WEEKDAY(DATE($U$7,$V$7,$U$45))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:T50">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>OR($V$48=1,$V$48=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$48))=1,WEEKDAY(DATE($U$7,$V$7,$U$48))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:T53">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>OR($V$51=1,$V$51=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$51))=1,WEEKDAY(DATE($U$7,$V$7,$U$51))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:T56">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>OR($V$54=1,$V$54=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$54))=1,WEEKDAY(DATE($U$7,$V$7,$U$54))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:T59">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>OR($V$57=1,$V$57=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$57))=1,WEEKDAY(DATE($U$7,$V$7,$U$57))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:T62">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>OR($V$60=1,$V$60=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$60))=1,WEEKDAY(DATE($U$7,$V$7,$U$60))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:T65">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>OR($V$63=1,$V$63=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$63))=1,WEEKDAY(DATE($U$7,$V$7,$U$63))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:T68">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>OR($V$66=1,$V$66=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$66))=1,WEEKDAY(DATE($U$7,$V$7,$U$66))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:T71">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>OR($V$69=1,$V$69=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$69))=1,WEEKDAY(DATE($U$7,$V$7,$U$69))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:T74">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>OR($V$72=1,$V$72=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$72))=1,WEEKDAY(DATE($U$7,$V$7,$U$72))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:T77">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>OR($V$75=1,$V$75=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$75))=1,WEEKDAY(DATE($U$7,$V$7,$U$75))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:T80">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>OR($V$78=1,$V$78=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$78))=1,WEEKDAY(DATE($U$7,$V$7,$U$78))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:T83">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>OR($V$81=1,$V$81=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$81))=1,WEEKDAY(DATE($U$7,$V$7,$U$81))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:T86">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>OR($V$84=1,$V$84=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$84))=1,WEEKDAY(DATE($U$7,$V$7,$U$84))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87:T89">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>OR($V$87=1,$V$87=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$87))=1,WEEKDAY(DATE($U$7,$V$7,$U$87))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:T92">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>OR($V$90=1,$V$90=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$90))=1,WEEKDAY(DATE($U$7,$V$7,$U$90))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93:T95">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>OR($V$93=1,$V$93=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$93))=1,WEEKDAY(DATE($U$7,$V$7,$U$93))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:T98">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>OR($V$96=1,$V$96=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$96))=1,WEEKDAY(DATE($U$7,$V$7,$U$96))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:T101">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR($V$99=1,$V$99=7)</formula>
+      <formula>OR(WEEKDAY(DATE($U$7,$V$7,$U$99))=1,WEEKDAY(DATE($U$7,$V$7,$U$99))=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
